--- a/data/population_models/models_summary_hainich.xlsx
+++ b/data/population_models/models_summary_hainich.xlsx
@@ -422,33 +422,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.02]</t>
+          <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20608 [17756-23983]</t>
+          <t>20474 [17649-23816]</t>
         </is>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2112.473413319239</v>
+        <v>2121.399013319239</v>
       </c>
       <c r="H2">
-        <v>274.1518058107063</v>
+        <v>273.7714058107063</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-9694.117700000001</v>
+        <v>-9687.522499999999</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.83 [0.575-0.879]</t>
+          <t>0.83 [0.757-0.879]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -474,23 +474,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19486 [16774-22703]</t>
+          <t>19349 [16663-22534]</t>
         </is>
       </c>
       <c r="F3">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>1901.424043949045</v>
+        <v>1910.782343949045</v>
       </c>
       <c r="H3">
-        <v>63.10243644051207</v>
+        <v>63.15473644051212</v>
       </c>
       <c r="I3">
-        <v>7.976980960106629E-15</v>
+        <v>9.687787988735678E-15</v>
       </c>
       <c r="J3">
-        <v>-9925.3285</v>
+        <v>-9918.3006</v>
       </c>
     </row>
     <row r="4">
@@ -511,28 +511,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19941 [17176-23217]</t>
+          <t>19812 [17073-23055]</t>
         </is>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>2095.00778071066</v>
+        <v>2103.91518071066</v>
       </c>
       <c r="H4">
-        <v>256.6861732021275</v>
+        <v>256.2875732021275</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-9713.5918</v>
+        <v>-9707.014800000001</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.85 [0.457-0.886]</t>
+          <t>0.85 [0.729-0.886]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -553,28 +553,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04 [0.036-0.055]</t>
+          <t>0.04 [0.036-0.054]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19445 [16749-22641]</t>
+          <t>19310 [16640-22474]</t>
         </is>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
       <c r="G5">
-        <v>1881.094708241291</v>
+        <v>1890.371708241291</v>
       </c>
       <c r="H5">
-        <v>42.77310073275885</v>
+        <v>42.74410073275885</v>
       </c>
       <c r="I5">
-        <v>2.071560945355257E-10</v>
+        <v>2.620220595576289E-10</v>
       </c>
       <c r="J5">
-        <v>-9947.6834</v>
+        <v>-9940.736800000001</v>
       </c>
     </row>
     <row r="6">
@@ -590,33 +590,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.02]</t>
+          <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20243 [17429-23578]</t>
+          <t>20111 [17324-23413]</t>
         </is>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>2081.281648032162</v>
+        <v>2090.195748032162</v>
       </c>
       <c r="H6">
-        <v>242.9600405236297</v>
+        <v>242.5681405236296</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-9729.328</v>
+        <v>-9722.7444</v>
       </c>
     </row>
     <row r="7">
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.85 [0.722-0.891]</t>
+          <t>0.85 [0.631-0.891]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,23 +642,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19293 [16631-22447]</t>
+          <t>19163 [16526-22286]</t>
         </is>
       </c>
       <c r="F7">
         <v>16</v>
       </c>
       <c r="G7">
-        <v>1874.171994220145</v>
+        <v>1883.473094220145</v>
       </c>
       <c r="H7">
-        <v>35.85038671161215</v>
+        <v>35.84548671161201</v>
       </c>
       <c r="I7">
-        <v>6.600030832173897E-09</v>
+        <v>8.248079856518091E-09</v>
       </c>
       <c r="J7">
-        <v>-9956.633400000001</v>
+        <v>-9949.6626</v>
       </c>
     </row>
     <row r="8">
@@ -684,23 +684,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21762 [18727-25354]</t>
+          <t>21620 [18614-25176]</t>
         </is>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>2022.86218071066</v>
+        <v>2031.80968071066</v>
       </c>
       <c r="H8">
-        <v>184.5405732021275</v>
+        <v>184.1820732021274</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-9785.7374</v>
+        <v>-9779.120199999999</v>
       </c>
     </row>
     <row r="9">
@@ -711,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.82 [0.569-0.868]</t>
+          <t>0.82 [0.66-0.868]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,28 +721,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02 [0.016-0.035]</t>
+          <t>0.02 [0.016-0.034]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21518 [18313-25360]</t>
+          <t>21402 [18266-25151]</t>
         </is>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>1847.314908241292</v>
+        <v>1856.351008241291</v>
       </c>
       <c r="H9">
-        <v>8.993300732759053</v>
+        <v>8.723400732758819</v>
       </c>
       <c r="I9">
-        <v>0.00448216752526038</v>
+        <v>0.006394977138071833</v>
       </c>
       <c r="J9">
-        <v>-9981.463100000001</v>
+        <v>-9974.7575</v>
       </c>
     </row>
     <row r="10">
@@ -763,28 +763,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21147 [18195-24644]</t>
+          <t>21009 [18085-24471]</t>
         </is>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10">
-        <v>1991.784948032162</v>
+        <v>2000.713548032163</v>
       </c>
       <c r="H10">
-        <v>153.46334052363</v>
+        <v>153.0859405236301</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-9818.824699999999</v>
+        <v>-9812.226500000001</v>
       </c>
     </row>
     <row r="11">
@@ -795,38 +795,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.86 [0.315-0.905]</t>
+          <t>0.93 [0.544-0.95]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.02 [0.019-0.031]</t>
+          <t>0.02 [0.018-0.028]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03 [0.017-0.045]</t>
+          <t>0.02 [0.011-0.039]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20119 [17027-23856]</t>
+          <t>19758 [16734-23411]</t>
         </is>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <v>1839.319394220144</v>
+        <v>1868.233094220144</v>
       </c>
       <c r="H11">
-        <v>0.9977867116119796</v>
+        <v>20.605486711612</v>
       </c>
       <c r="I11">
-        <v>0.2441697701364477</v>
+        <v>1.68142232392388E-05</v>
       </c>
       <c r="J11">
-        <v>-9991.486000000001</v>
+        <v>-9964.902599999999</v>
       </c>
     </row>
     <row r="12">
@@ -847,28 +847,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22189 [19085-25865]</t>
+          <t>22044 [18969-25684]</t>
         </is>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>2004.867348032162</v>
+        <v>2013.825648032162</v>
       </c>
       <c r="H12">
-        <v>166.54574052363</v>
+        <v>166.19804052363</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-9805.742399999999</v>
+        <v>-9799.1145</v>
       </c>
     </row>
     <row r="13">
@@ -879,7 +879,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.82 [0.383-0.872]</t>
+          <t>0.82 [0.477-0.869]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,28 +889,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.038]</t>
+          <t>0.02 [0.015-0.035]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21458 [18194-25387]</t>
+          <t>21548 [18130-25701]</t>
         </is>
       </c>
       <c r="F13">
         <v>16</v>
       </c>
       <c r="G13">
-        <v>1849.275994220144</v>
+        <v>1858.319094220145</v>
       </c>
       <c r="H13">
-        <v>10.95438671161196</v>
+        <v>10.69148671161201</v>
       </c>
       <c r="I13">
-        <v>0.001681294046352455</v>
+        <v>0.00239042188342868</v>
       </c>
       <c r="J13">
-        <v>-9981.5293</v>
+        <v>-9974.816699999999</v>
       </c>
     </row>
     <row r="14">
@@ -926,33 +926,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.022]</t>
+          <t>0.02 [0.016-0.022]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21634 [18603-25225]</t>
+          <t>21493 [18491-25048]</t>
         </is>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14">
-        <v>1966.546017442845</v>
+        <v>1975.486117442845</v>
       </c>
       <c r="H14">
-        <v>128.2244099343125</v>
+        <v>127.8585099343125</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>-9846.0756</v>
+        <v>-9839.465899999999</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.85 [0.557-0.907]</t>
+          <t>0.85 [0.33-0.908]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -978,23 +978,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20498 [17255-24441]</t>
+          <t>19979 [16946-23636]</t>
         </is>
       </c>
       <c r="F15">
         <v>17</v>
       </c>
       <c r="G15">
-        <v>1840.245504081633</v>
+        <v>1849.528704081633</v>
       </c>
       <c r="H15">
-        <v>1.923896573100365</v>
+        <v>1.901096573100176</v>
       </c>
       <c r="I15">
-        <v>0.1536702129540886</v>
+        <v>0.1937686535302816</v>
       </c>
       <c r="J15">
-        <v>-9992.588900000001</v>
+        <v>-9985.636</v>
       </c>
     </row>
     <row r="16">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.92 [0.881-0.951]</t>
+          <t>0.92 [0.882-0.952]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1020,23 +1020,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30409 [25627-36167]</t>
+          <t>30272 [25527-35983]</t>
         </is>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16">
-        <v>1883.942508241291</v>
+        <v>1893.713808241291</v>
       </c>
       <c r="H16">
-        <v>45.62090073275886</v>
+        <v>46.08620073275893</v>
       </c>
       <c r="I16">
-        <v>4.987762916816197E-11</v>
+        <v>4.927311989713431E-11</v>
       </c>
       <c r="J16">
-        <v>-9944.835499999999</v>
+        <v>-9937.394700000001</v>
       </c>
     </row>
     <row r="17">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.91 [0.428-0.951]</t>
+          <t>0.92 [0.605-0.951]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.11 [0.107-0.124]</t>
+          <t>0.11 [0.107-0.123]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1062,23 +1062,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25831 [21725-30801]</t>
+          <t>25874 [21937-30597]</t>
         </is>
       </c>
       <c r="F17">
         <v>25</v>
       </c>
       <c r="G17">
-        <v>1877.145307508532</v>
+        <v>1886.247807508532</v>
       </c>
       <c r="H17">
-        <v>38.82369999999992</v>
+        <v>38.62019999999984</v>
       </c>
       <c r="I17">
-        <v>1.492447927709464E-09</v>
+        <v>2.059830678249869E-09</v>
       </c>
       <c r="J17">
-        <v>-9971.9835</v>
+        <v>-9965.2114</v>
       </c>
     </row>
     <row r="18">
@@ -1104,23 +1104,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20927 [18022-24365]</t>
+          <t>20790 [17913-24194]</t>
         </is>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
-        <v>2100.16498071066</v>
+        <v>2109.09818071066</v>
       </c>
       <c r="H18">
-        <v>261.8433732021276</v>
+        <v>261.4705732021275</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>-9708.434600000001</v>
+        <v>-9701.8318</v>
       </c>
     </row>
     <row r="19">
@@ -1131,38 +1131,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.83 [0.757-0.874]</t>
+          <t>0.83 [0.649-0.882]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.032]</t>
+          <t>0.03 [0.021-0.033]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04 [0.036-0.04]</t>
+          <t>0.04 [0.029-0.049]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19507 [16836-22665]</t>
+          <t>19370 [16696-22537]</t>
         </is>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19">
-        <v>1897.861008241291</v>
+        <v>1907.270208241291</v>
       </c>
       <c r="H19">
-        <v>59.53940073275885</v>
+        <v>59.64260073275886</v>
       </c>
       <c r="I19">
-        <v>4.737420432229971E-14</v>
+        <v>5.608867811245317E-14</v>
       </c>
       <c r="J19">
-        <v>-9930.917100000001</v>
+        <v>-9923.838299999999</v>
       </c>
     </row>
     <row r="20">
@@ -1173,38 +1173,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.84 [0.819-0.854]</t>
+          <t>0.84 [0.825-0.851]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.04 [0.033-0.047]</t>
+          <t>0.04 [0.034-0.046]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.06 [0.048-0.437]</t>
+          <t>0.06 [0.048-0.261]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19672 [16943-22906]</t>
+          <t>19552 [17873-21411]</t>
         </is>
       </c>
       <c r="F20">
         <v>14</v>
       </c>
       <c r="G20">
-        <v>1872.666243949045</v>
+        <v>1882.360243949045</v>
       </c>
       <c r="H20">
-        <v>34.3446364405122</v>
+        <v>34.73263644051212</v>
       </c>
       <c r="I20">
-        <v>1.401249534385245E-08</v>
+        <v>1.438815882007276E-08</v>
       </c>
       <c r="J20">
-        <v>-9954.0862</v>
+        <v>-9946.722599999999</v>
       </c>
     </row>
     <row r="21">
@@ -1215,38 +1215,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.8 [0.553-0.885]</t>
+          <t>0.8 [0.909-0]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.03 [0.027-0.041]</t>
+          <t>0.03 [1-0]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.06 [0.03-0.476]</t>
+          <t>0.06 [0.545-0]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20300 [17365-23802]</t>
+          <t>20197 [20197-20197]</t>
         </is>
       </c>
       <c r="F21">
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1844.160627078891</v>
+        <v>1853.894227078891</v>
       </c>
       <c r="H21">
-        <v>5.839019570358687</v>
+        <v>6.266619570358671</v>
       </c>
       <c r="I21">
-        <v>0.0216985911228723</v>
+        <v>0.02184350102245046</v>
       </c>
       <c r="J21">
-        <v>-10002.925</v>
+        <v>-9995.522000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.83 [0.811-0.855]</t>
+          <t>0.83 [0.812-0.856]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1267,28 +1267,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.06 [0.038-0.391]</t>
+          <t>0.06 [0.038-0.302]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19314 [16617-22516]</t>
+          <t>19212 [16538-22387]</t>
         </is>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
       <c r="G22">
-        <v>1863.811008241291</v>
+        <v>1873.581408241291</v>
       </c>
       <c r="H22">
-        <v>25.4894007327589</v>
+        <v>25.95380073275896</v>
       </c>
       <c r="I22">
-        <v>1.173290308065795E-06</v>
+        <v>1.159591907147251E-06</v>
       </c>
       <c r="J22">
-        <v>-9964.967000000001</v>
+        <v>-9957.527099999999</v>
       </c>
     </row>
     <row r="23">
@@ -1299,38 +1299,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.84 [0.25-0.945]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.03 [0.004-0.207]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.06 [0.909-0]</t>
+          <t>0.06 [0.005-0.763]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19906 [19906-19906]</t>
+          <t>19856 [9176-46906]</t>
         </is>
       </c>
       <c r="F23">
         <v>25</v>
       </c>
       <c r="G23">
-        <v>1843.795207508532</v>
+        <v>1853.275107508532</v>
       </c>
       <c r="H23">
-        <v>5.473600000000033</v>
+        <v>5.647499999999809</v>
       </c>
       <c r="I23">
-        <v>0.02604842012076015</v>
+        <v>0.02976887029182239</v>
       </c>
       <c r="J23">
-        <v>-10005.334</v>
+        <v>-9998.183999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1341,38 +1341,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.83 [0.814-0.854]</t>
+          <t>0.84 [0.815-0.854]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.04 [0.032-0.051]</t>
+          <t>0.04 [0.033-0.05]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.06 [0.039-0.379]</t>
+          <t>0.06 [0.051-0.174]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>19704 [16938-22989]</t>
+          <t>19588 [16861-22821]</t>
         </is>
       </c>
       <c r="F24">
         <v>16</v>
       </c>
       <c r="G24">
-        <v>1862.815794220144</v>
+        <v>1872.372794220144</v>
       </c>
       <c r="H24">
-        <v>24.49418671161197</v>
+        <v>24.74518671161195</v>
       </c>
       <c r="I24">
-        <v>1.929805154457855E-06</v>
+        <v>2.12203418446241E-06</v>
       </c>
       <c r="J24">
-        <v>-9967.989600000001</v>
+        <v>-9960.763000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1383,38 +1383,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.89 [0.727-0]</t>
+          <t>0.83 [0.698-0.904]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.03 [0.025-0.042]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06 [0.545-0]</t>
+          <t>0.06 [-356540.474-356540.608]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21476 [21476-21476]</t>
+          <t>20225 [17269-23761]</t>
         </is>
       </c>
       <c r="F25">
         <v>26</v>
       </c>
       <c r="G25">
-        <v>1859.390931754161</v>
+        <v>1852.410131754161</v>
       </c>
       <c r="H25">
-        <v>21.06932424562888</v>
+        <v>4.782524245628792</v>
       </c>
       <c r="I25">
-        <v>1.06957907323773E-05</v>
+        <v>0.04587641284539187</v>
       </c>
       <c r="J25">
-        <v>-9991.7824</v>
+        <v>-10001.094</v>
       </c>
     </row>
     <row r="26">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.84 [0.823-0.857]</t>
+          <t>0.84 [0.824-0.857]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1435,28 +1435,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06 [0.043-0.561]</t>
+          <t>0.06 [0.043-0.66]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19863 [17087-23156]</t>
+          <t>19747 [16996-23010]</t>
         </is>
       </c>
       <c r="F26">
         <v>15</v>
       </c>
       <c r="G26">
-        <v>1872.808608241291</v>
+        <v>1882.578608241291</v>
       </c>
       <c r="H26">
-        <v>34.48700073275904</v>
+        <v>34.95100073275898</v>
       </c>
       <c r="I26">
-        <v>1.304972825251107E-08</v>
+        <v>1.289994977590547E-08</v>
       </c>
       <c r="J26">
-        <v>-9955.969499999999</v>
+        <v>-9948.5299</v>
       </c>
     </row>
     <row r="27">
@@ -1467,38 +1467,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.81 [0.51-0.898]</t>
+          <t>0.81 [0.433-0.896]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.03 [0.023-0.042]</t>
+          <t>0.03 [0.024-0.042]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.05 [0.015-0.456]</t>
+          <t>0.05 [0.016-0.54]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20868 [17346-25208]</t>
+          <t>20817 [17378-25036]</t>
         </is>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27">
-        <v>1843.337507508532</v>
+        <v>1852.917107508532</v>
       </c>
       <c r="H27">
-        <v>5.015899999999874</v>
+        <v>5.289499999999862</v>
       </c>
       <c r="I27">
-        <v>0.03274686127001298</v>
+        <v>0.03560418639946168</v>
       </c>
       <c r="J27">
-        <v>-10005.791</v>
+        <v>-9998.541999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.84 [0.815-0.862]</t>
+          <t>0.84 [0.816-0.862]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1519,28 +1519,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.06 [0.035-0.127]</t>
+          <t>0.06 [0.035-0.211]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19522 [16781-22777]</t>
+          <t>19415 [16698-22641]</t>
         </is>
       </c>
       <c r="F28">
         <v>16</v>
       </c>
       <c r="G28">
-        <v>1863.752394220144</v>
+        <v>1873.562594220145</v>
       </c>
       <c r="H28">
-        <v>25.43078671161197</v>
+        <v>25.93498671161205</v>
       </c>
       <c r="I28">
-        <v>1.20818476814755E-06</v>
+        <v>1.170551668955606E-06</v>
       </c>
       <c r="J28">
-        <v>-9967.053</v>
+        <v>-9959.573200000001</v>
       </c>
     </row>
     <row r="29">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.85 [0.64-0.918]</t>
+          <t>0.85 [0.46-0.918]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1561,28 +1561,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.05 [0.012-0.332]</t>
+          <t>0.05 [0.012-0.519]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20394 [17131-24371]</t>
+          <t>20344 [17085-24315]</t>
         </is>
       </c>
       <c r="F29">
         <v>26</v>
       </c>
       <c r="G29">
-        <v>1843.005731754161</v>
+        <v>1852.274731754161</v>
       </c>
       <c r="H29">
-        <v>4.684124245628936</v>
+        <v>4.647124245628902</v>
       </c>
       <c r="I29">
-        <v>0.03865572914910126</v>
+        <v>0.04908979164040113</v>
       </c>
       <c r="J29">
-        <v>-10008.168</v>
+        <v>-10001.229</v>
       </c>
     </row>
     <row r="30">
@@ -1593,38 +1593,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.84 [0.825-0.858]</t>
+          <t>0.84 [1-0]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.04 [0.031-0.046]</t>
+          <t>0.04 [1-0]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06 [0.044-0.258]</t>
+          <t>0.06 [0.545-0]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19956 [17165-23268]</t>
+          <t>19836 [19836-19836]</t>
         </is>
       </c>
       <c r="F30">
         <v>16</v>
       </c>
       <c r="G30">
-        <v>1874.919494220145</v>
+        <v>1884.598494220144</v>
       </c>
       <c r="H30">
-        <v>36.59788671161209</v>
+        <v>36.97088671161191</v>
       </c>
       <c r="I30">
-        <v>4.54180413901037E-09</v>
+        <v>4.698674410391507E-09</v>
       </c>
       <c r="J30">
-        <v>-9955.8858</v>
+        <v>-9948.537200000001</v>
       </c>
     </row>
     <row r="31">
@@ -1635,38 +1635,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.81 [0.591-0.896]</t>
+          <t>0.81 [0.589-0.896]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.03 [0.023-0.042]</t>
+          <t>0.03 [0.023-0.043]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.05 [0.018-0.588]</t>
+          <t>0.05 [0.018-0.316]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21329 [17780-25688]</t>
+          <t>21283 [17714-25673]</t>
         </is>
       </c>
       <c r="F31">
         <v>26</v>
       </c>
       <c r="G31">
-        <v>1843.996831754161</v>
+        <v>1853.300731754161</v>
       </c>
       <c r="H31">
-        <v>5.675224245628897</v>
+        <v>5.673124245628742</v>
       </c>
       <c r="I31">
-        <v>0.02355045157859136</v>
+        <v>0.02938990075570425</v>
       </c>
       <c r="J31">
-        <v>-10007.177</v>
+        <v>-10000.203</v>
       </c>
     </row>
     <row r="32">
@@ -1677,38 +1677,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.84 [0.818-0.863]</t>
+          <t>0.84 [1-0]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.04 [0.03-0.05]</t>
+          <t>0.04 [1-0]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.06 [0.036-0.289]</t>
+          <t>0.06 [0.818-0]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19946 [17134-23288]</t>
+          <t>19829 [19829-19829]</t>
         </is>
       </c>
       <c r="F32">
         <v>17</v>
       </c>
       <c r="G32">
-        <v>1862.863204081633</v>
+        <v>1872.391304081633</v>
       </c>
       <c r="H32">
-        <v>24.54159657310038</v>
+        <v>24.76369657310033</v>
       </c>
       <c r="I32">
-        <v>1.884597199573541E-06</v>
+        <v>2.102485505418346E-06</v>
       </c>
       <c r="J32">
-        <v>-9969.9712</v>
+        <v>-9962.773499999999</v>
       </c>
     </row>
     <row r="33">
@@ -1719,38 +1719,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.84 [0.36-0.919]</t>
+          <t>0.84 [0.818-0]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.043]</t>
+          <t>0.03 [1-0]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.05 [0.015-0.393]</t>
+          <t>0.05 [0.636-0]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20779 [17490-24777]</t>
+          <t>20700 [20700-20700]</t>
         </is>
       </c>
       <c r="F33">
         <v>27</v>
       </c>
       <c r="G33">
-        <v>1842.85610204953</v>
+        <v>1851.64570204953</v>
       </c>
       <c r="H33">
-        <v>4.534494540997684</v>
+        <v>4.018094540997708</v>
       </c>
       <c r="I33">
-        <v>0.04165868406774916</v>
+        <v>0.06723311816305533</v>
       </c>
       <c r="J33">
-        <v>-10010.364</v>
+        <v>-10003.905</v>
       </c>
     </row>
     <row r="34">
@@ -1761,38 +1761,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.9 [0.864-0.932]</t>
+          <t>0.9 [0.865-0.932]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.11 [0.097-0.123]</t>
+          <t>0.11 [0.098-0.121]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.09 [0.023-0.721]</t>
+          <t>0.09 [0.025-0.707]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18781 [15544-22803]</t>
+          <t>18758 [15589-22678]</t>
         </is>
       </c>
       <c r="F34">
         <v>25</v>
       </c>
       <c r="G34">
-        <v>1838.321607508532</v>
+        <v>1847.627607508532</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.4021226406774485</v>
+        <v>0.5013042621535068</v>
       </c>
       <c r="J34">
-        <v>-10010.807</v>
+        <v>-10003.832</v>
       </c>
     </row>
     <row r="35">
@@ -1803,38 +1803,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.72 [0.343-0.844]</t>
+          <t>0.76 [0.193-0.886]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.28 [0.263-0.303]</t>
+          <t>0.2 [0.096-0.251]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.09 [0.03-0.419]</t>
+          <t>0.09 [0.018-0.723]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17089 [14246-20604]</t>
+          <t>17450 [13882-22109]</t>
         </is>
       </c>
       <c r="F35">
         <v>35</v>
       </c>
       <c r="G35">
-        <v>1974.561791516709</v>
+        <v>1859.23459151671</v>
       </c>
       <c r="H35">
-        <v>136.240184008177</v>
+        <v>11.60698400817705</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.001512435434905725</v>
       </c>
       <c r="J35">
-        <v>-9895.0921</v>
+        <v>-10012.75</v>
       </c>
     </row>
     <row r="36">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.83 [0.811-0.852]</t>
+          <t>0.84 [0.821-0.853]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.04 [0.033-0.05]</t>
+          <t>0.04 [0.035-0.044]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.06 [0.046-0.677]</t>
+          <t>0.06 [0.048-0.253]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19209 [16514-22413]</t>
+          <t>19561 [17621-21744]</t>
         </is>
       </c>
       <c r="F36">
         <v>15</v>
       </c>
       <c r="G36">
-        <v>1884.994508241291</v>
+        <v>1884.348708241291</v>
       </c>
       <c r="H36">
-        <v>46.67290073275899</v>
+        <v>36.72110073275894</v>
       </c>
       <c r="I36">
-        <v>2.947588846499984E-11</v>
+        <v>5.323725914153728E-09</v>
       </c>
       <c r="J36">
-        <v>-9943.783600000001</v>
+        <v>-9946.7598</v>
       </c>
     </row>
     <row r="37">
@@ -1887,38 +1887,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.82 [0.378-0.901]</t>
+          <t>0.8 [0.428-0.891]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.03 [0.017-0.064]</t>
+          <t>0.03 [0.027-0.044]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.05 [0.02-0.58]</t>
+          <t>0.06 [0.028-0.48]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20655 [17490-24474]</t>
+          <t>20575 [17522-24238]</t>
         </is>
       </c>
       <c r="F37">
         <v>25</v>
       </c>
       <c r="G37">
-        <v>1845.812907508532</v>
+        <v>1854.542007508532</v>
       </c>
       <c r="H37">
-        <v>7.49129999999991</v>
+        <v>6.914399999999887</v>
       </c>
       <c r="I37">
-        <v>0.009498245700081221</v>
+        <v>0.01580005192523281</v>
       </c>
       <c r="J37">
-        <v>-10003.316</v>
+        <v>-9996.9172</v>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_hainich.xlsx
+++ b/data/population_models/models_summary_hainich.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,1517 +408,4240 @@
           <t>Deviance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ind_per_ha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.94 [0.938-0.948]</t>
+          <t>0.86 [0.823-0.897]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.021]</t>
+          <t>0.03 [0.022-0.037]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.05 [0.028-0.08]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20474 [17649-23816]</t>
+          <t>19579 [16861-22801]</t>
         </is>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>2121.399013319239</v>
+        <v>1871.070059855871</v>
       </c>
       <c r="H2">
-        <v>273.7714058107063</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5560908241250312</v>
       </c>
       <c r="J2">
-        <v>-9687.522499999999</v>
+        <v>-9949.927799999999</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>201 [173-233]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.83 [0.757-0.879]</t>
+          <t>0.87 [0.806-0.908]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.031]</t>
+          <t>0.03 [0.023-0.038]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04 [0.03-0.05]</t>
+          <t>0.04 [0.026-0.086]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19349 [16663-22534]</t>
+          <t>19341 [16584-22627]</t>
         </is>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>1910.782343949045</v>
+        <v>1872.718959287532</v>
       </c>
       <c r="H3">
-        <v>63.15473644051212</v>
+        <v>1.648899431660766</v>
       </c>
       <c r="I3">
-        <v>9.687787988735678E-15</v>
+        <v>0.2438325984281831</v>
       </c>
       <c r="J3">
-        <v>-9918.3006</v>
+        <v>-9950.2976</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>175 [147-209]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.95 [0.942-0.953]</t>
+          <t>0.87 [0.825-0.898]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.02]</t>
+          <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.04 [0.028-0.067]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19812 [17073-23055]</t>
+          <t>19446 [16732-22666]</t>
         </is>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>2103.91518071066</v>
+        <v>1874.650171186441</v>
       </c>
       <c r="H4">
-        <v>256.2875732021275</v>
+        <v>3.580111330569707</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.09283985024564943</v>
       </c>
       <c r="J4">
-        <v>-9707.014800000001</v>
+        <v>-9944.330599999999</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>180 [151-215]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.85 [0.729-0.886]</t>
+          <t>0.86 [0.806-0.899]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.031]</t>
+          <t>0.03 [0.021-0.035]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04 [0.036-0.054]</t>
+          <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19310 [16640-22474]</t>
+          <t>19768 [16958-23113]</t>
         </is>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>1890.371708241291</v>
+        <v>1875.689959855871</v>
       </c>
       <c r="H5">
-        <v>42.74410073275885</v>
+        <v>4.619900000000143</v>
       </c>
       <c r="I5">
-        <v>2.620220595576289E-10</v>
+        <v>0.0552010311660396</v>
       </c>
       <c r="J5">
-        <v>-9940.736800000001</v>
+        <v>-9945.3079</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>194 [167-226]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.95 [0.939-0.951]</t>
+          <t>0.86 [0.822-0.894]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.021]</t>
+          <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.05 [0.03-0.077]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20111 [17324-23413]</t>
+          <t>19397 [16722-22565]</t>
         </is>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>2090.195748032162</v>
+        <v>1877.635071186441</v>
       </c>
       <c r="H6">
-        <v>242.5681405236296</v>
+        <v>6.565011330569632</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02087236360454426</v>
       </c>
       <c r="J6">
-        <v>-9722.7444</v>
+        <v>-9941.345799999999</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.85 [0.631-0.891]</t>
+          <t>0.86 [0.804-0.903]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.033]</t>
+          <t>0.03 [0.022-0.037]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.04 [0.036-0.054]</t>
+          <t>0.05 [0.028-0.083]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19163 [16526-22286]</t>
+          <t>19545 [16783-22831]</t>
         </is>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>1883.473094220145</v>
+        <v>1879.451759855871</v>
       </c>
       <c r="H7">
-        <v>35.84548671161201</v>
+        <v>8.381700000000137</v>
       </c>
       <c r="I7">
-        <v>8.248079856518091E-09</v>
+        <v>0.008415553775794837</v>
       </c>
       <c r="J7">
-        <v>-9949.6626</v>
+        <v>-9941.5461</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.93 [0.929-0.94]</t>
+          <t>0.87 [0.832-0.902]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.02 [0.016-0.022]</t>
+          <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.03 [0.014-0.048]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21620 [18614-25176]</t>
+          <t>18894 [16135-22199]</t>
         </is>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>2031.80968071066</v>
+        <v>1880.439691105464</v>
       </c>
       <c r="H8">
-        <v>184.1820732021274</v>
+        <v>9.369631249592658</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005135185713077375</v>
       </c>
       <c r="J8">
-        <v>-9779.120199999999</v>
+        <v>-9936.525900000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>197 [170-230]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.82 [0.66-0.868]</t>
+          <t>0.85 [0.804-0.895]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.03]</t>
+          <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02 [0.016-0.034]</t>
+          <t>0.04 [0.029-0.069]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21402 [18266-25151]</t>
+          <t>19844 [17028-23196]</t>
         </is>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1856.351008241291</v>
+        <v>1880.898971186441</v>
       </c>
       <c r="H9">
-        <v>8.723400732758819</v>
+        <v>9.828911330569554</v>
       </c>
       <c r="I9">
-        <v>0.006394977138071833</v>
+        <v>0.004081546531237779</v>
       </c>
       <c r="J9">
-        <v>-9974.7575</v>
+        <v>-9938.081899999999</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>189 [161-221]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.94 [0.932-0.944]</t>
+          <t>0.87 [0.852-0.891]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.021]</t>
+          <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.03 [0.017-0.04]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21009 [18085-24471]</t>
+          <t>19357 [16674-22538]</t>
         </is>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>2000.713548032163</v>
+        <v>1881.130191105464</v>
       </c>
       <c r="H10">
-        <v>153.0859405236301</v>
+        <v>10.06013124959259</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00363593394372025</v>
       </c>
       <c r="J10">
-        <v>-9812.226500000001</v>
+        <v>-9935.8354</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>188 [161-221]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.93 [0.544-0.95]</t>
+          <t>0.87 [0.814-0.909]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.02 [0.018-0.028]</t>
+          <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02 [0.011-0.039]</t>
+          <t>0.03 [0.014-0.048]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19758 [16734-23411]</t>
+          <t>19032 [16195-22445]</t>
         </is>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>1868.233094220144</v>
+        <v>1882.304971186441</v>
       </c>
       <c r="H11">
-        <v>20.605486711612</v>
+        <v>11.2349113305695</v>
       </c>
       <c r="I11">
-        <v>1.68142232392388E-05</v>
+        <v>0.00202076462772926</v>
       </c>
       <c r="J11">
-        <v>-9964.902599999999</v>
+        <v>-9936.6759</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>212 [182-247]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.93 [0.926-0.937]</t>
+          <t>0.87 [0.843-0.888]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.02 [0.016-0.022]</t>
+          <t>0.03 [0.025-0.04]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.05 [0.039-0.075]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22044 [18969-25684]</t>
+          <t>20746 [17856-24170]</t>
         </is>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>2013.825648032162</v>
+        <v>1882.373071186441</v>
       </c>
       <c r="H12">
-        <v>166.19804052363</v>
+        <v>11.30301133056969</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001953115848508479</v>
       </c>
       <c r="J12">
-        <v>-9799.1145</v>
+        <v>-9936.6077</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>170 [141-205]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.82 [0.477-0.869]</t>
+          <t>0.87 [0.847-0.89]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.02 [0.02-0.031]</t>
+          <t>0.03 [0.021-0.032]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.035]</t>
+          <t>0.03 [0.016-0.044]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21548 [18130-25701]</t>
+          <t>19353 [16676-22525]</t>
         </is>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>1858.319094220145</v>
+        <v>1882.723971186441</v>
       </c>
       <c r="H13">
-        <v>10.69148671161201</v>
+        <v>11.6539113305696</v>
       </c>
       <c r="I13">
-        <v>0.00239042188342868</v>
+        <v>0.001638819176821221</v>
       </c>
       <c r="J13">
-        <v>-9974.816699999999</v>
+        <v>-9936.2569</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>188 [158-224]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.94 [0.929-0.941]</t>
+          <t>0.87 [0.828-0.9]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.02 [0.016-0.022]</t>
+          <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21493 [18491-25048]</t>
+          <t>19230 [16528-22441]</t>
         </is>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>1975.486117442845</v>
+        <v>1882.743091105464</v>
       </c>
       <c r="H14">
-        <v>127.8585099343125</v>
+        <v>11.67303124959267</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001623226781928585</v>
       </c>
       <c r="J14">
-        <v>-9839.465899999999</v>
+        <v>-9934.2225</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>206 [177-240]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.85 [0.33-0.908]</t>
+          <t>0.87 [0.833-0.905]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.02 [0.019-0.032]</t>
+          <t>0.03 [0.022-0.032]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.03 [0.018-0.045]</t>
+          <t>0.03 [0.017-0.043]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19979 [16946-23636]</t>
+          <t>19237 [16556-22418]</t>
         </is>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>1849.528704081633</v>
+        <v>1882.800771186441</v>
       </c>
       <c r="H15">
-        <v>1.901096573100176</v>
+        <v>11.73071133056965</v>
       </c>
       <c r="I15">
-        <v>0.1937686535302816</v>
+        <v>0.001577081470534858</v>
       </c>
       <c r="J15">
-        <v>-9985.636</v>
+        <v>-9936.1801</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>181 [154-214]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.92 [0.882-0.952]</t>
+          <t>0.87 [0.827-0.903]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.11 [0.104-0.117]</t>
+          <t>0.03 [0.022-0.034]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.09 [0.09-0.09]</t>
+          <t>0.03 [0.018-0.048]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30272 [25527-35983]</t>
+          <t>19157 [16500-22308]</t>
         </is>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>1893.713808241291</v>
+        <v>1883.914859855871</v>
       </c>
       <c r="H16">
-        <v>46.08620073275893</v>
+        <v>12.84480000000008</v>
       </c>
       <c r="I16">
-        <v>4.927311989713431E-11</v>
+        <v>0.0009035097602042146</v>
       </c>
       <c r="J16">
-        <v>-9937.394700000001</v>
+        <v>-9937.082899999999</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>186 [158-220]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.92 [0.605-0.951]</t>
+          <t>0.88 [0.838-0.906]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.11 [0.107-0.123]</t>
+          <t>0.02 [0.017-0.027]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.09 [0.09-0.09]</t>
+          <t>0.02 [0.012-0.05]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25874 [21937-30597]</t>
+          <t>18472 [15701-21812]</t>
         </is>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>1886.247807508532</v>
+        <v>1888.490617442845</v>
       </c>
       <c r="H17">
-        <v>38.62019999999984</v>
+        <v>17.42055758697393</v>
       </c>
       <c r="I17">
-        <v>2.059830678249869E-09</v>
+        <v>9.168952294607485E-05</v>
       </c>
       <c r="J17">
-        <v>-9965.2114</v>
+        <v>-9926.4614</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>216 [186-252]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.94 [0.935-0.946]</t>
+          <t>0.86 [0.814-0.904]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.02 [0.015-0.021]</t>
+          <t>0.02 [0.018-0.028]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.03 [0.013-0.048]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20790 [17913-24194]</t>
+          <t>18964 [16088-22436]</t>
         </is>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>2109.09818071066</v>
+        <v>1888.951891105464</v>
       </c>
       <c r="H18">
-        <v>261.4705732021275</v>
+        <v>17.88183124959278</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>7.280402832734477E-05</v>
       </c>
       <c r="J18">
-        <v>-9701.8318</v>
+        <v>-9928.0136</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>175 [147-209]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.83 [0.649-0.882]</t>
+          <t>0.86 [0.838-0.882]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.033]</t>
+          <t>0.03 [0.027-0.042]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04 [0.029-0.049]</t>
+          <t>0.06 [0.044-0.073]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19370 [16696-22537]</t>
+          <t>20336 [17508-23685]</t>
         </is>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>1907.270208241291</v>
+        <v>1892.264791105464</v>
       </c>
       <c r="H19">
-        <v>59.64260073275886</v>
+        <v>21.19473124959268</v>
       </c>
       <c r="I19">
-        <v>5.608867811245317E-14</v>
+        <v>1.389211326133769E-05</v>
       </c>
       <c r="J19">
-        <v>-9923.838299999999</v>
+        <v>-9924.700800000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>189 [159-225]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.84 [0.825-0.851]</t>
+          <t>0.86 [0.819-0.903]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.04 [0.034-0.046]</t>
+          <t>0.02 [0.019-0.029]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.06 [0.048-0.261]</t>
+          <t>0.05 [0.027-0.118]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19552 [17873-21411]</t>
+          <t>20005 [17080-23504]</t>
         </is>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>1882.360243949045</v>
+        <v>1901.777271186441</v>
       </c>
       <c r="H20">
-        <v>34.73263644051212</v>
+        <v>30.70721133056963</v>
       </c>
       <c r="I20">
-        <v>1.438815882007276E-08</v>
+        <v>1.194426722731198E-07</v>
       </c>
       <c r="J20">
-        <v>-9946.722599999999</v>
+        <v>-9917.203600000001</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>211 [181-246]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.8 [0.909-0]</t>
+          <t>0.86 [0.804-0.895]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.03 [0.027-0.043]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.06 [0.545-0]</t>
+          <t>0.06 [0.043-0.081]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20197 [20197-20197]</t>
+          <t>19047 [16419-22161]</t>
         </is>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>1853.894227078891</v>
+        <v>1904.401359855871</v>
       </c>
       <c r="H21">
-        <v>6.266619570358671</v>
+        <v>33.33130000000006</v>
       </c>
       <c r="I21">
-        <v>0.02184350102245046</v>
+        <v>3.216221098937011E-08</v>
       </c>
       <c r="J21">
-        <v>-9995.522000000001</v>
+        <v>-9916.5964</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>185 [158-218]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.83 [0.812-0.856]</t>
+          <t>0.85 [0.812-0.885]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.04 [0.033-0.051]</t>
+          <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.06 [0.038-0.302]</t>
+          <t>0.06 [0.043-0.08]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19212 [16538-22387]</t>
+          <t>19356 [16698-22502]</t>
         </is>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>1873.581408241291</v>
+        <v>1904.927271186441</v>
       </c>
       <c r="H22">
-        <v>25.95380073275896</v>
+        <v>33.85721133056973</v>
       </c>
       <c r="I22">
-        <v>1.159591907147251E-06</v>
+        <v>2.472553527295437E-08</v>
       </c>
       <c r="J22">
-        <v>-9957.527099999999</v>
+        <v>-9914.053599999999</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.84 [0.25-0.945]</t>
+          <t>0.85 [0.813-0.885]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.03 [0.004-0.207]</t>
+          <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.06 [0.005-0.763]</t>
+          <t>0.06 [0.044-0.079]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19856 [9176-46906]</t>
+          <t>19284 [16640-22412]</t>
         </is>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>1853.275107508532</v>
+        <v>1906.621291105464</v>
       </c>
       <c r="H23">
-        <v>5.647499999999809</v>
+        <v>35.55123124959277</v>
       </c>
       <c r="I23">
-        <v>0.02976887029182239</v>
+        <v>1.059970920043761E-08</v>
       </c>
       <c r="J23">
-        <v>-9998.183999999999</v>
+        <v>-9910.344300000001</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>263 [225-307]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.84 [0.815-0.854]</t>
+          <t>0.95 [0.923-0.964]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.04 [0.033-0.05]</t>
+          <t>0.02 [0.019-0.031]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.06 [0.051-0.174]</t>
+          <t>0.05 [0.038-0.066]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>19588 [16861-22821]</t>
+          <t>22717 [19523-26502]</t>
         </is>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>1872.372794220144</v>
+        <v>1906.932691105464</v>
       </c>
       <c r="H24">
-        <v>24.74518671161195</v>
+        <v>35.8626312495926</v>
       </c>
       <c r="I24">
-        <v>2.12203418446241E-06</v>
+        <v>9.071399633413308E-09</v>
       </c>
       <c r="J24">
-        <v>-9960.763000000001</v>
+        <v>-9910.0329</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>179 [150-216]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.83 [0.698-0.904]</t>
+          <t>0.86 [0.818-0.885]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.03 [0.025-0.042]</t>
+          <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06 [-356540.474-356540.608]</t>
+          <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20225 [17269-23761]</t>
+          <t>19455 [16786-22612]</t>
         </is>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1852.410131754161</v>
+        <v>1907.864291105464</v>
       </c>
       <c r="H25">
-        <v>4.782524245628792</v>
+        <v>36.79423124959271</v>
       </c>
       <c r="I25">
-        <v>0.04587641284539187</v>
+        <v>5.693507934195166E-09</v>
       </c>
       <c r="J25">
-        <v>-10001.094</v>
+        <v>-9909.1013</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>187 [155-226]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.84 [0.824-0.857]</t>
+          <t>0.86 [0.806-0.893]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.04 [0.032-0.046]</t>
+          <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06 [0.043-0.66]</t>
+          <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19747 [16996-23010]</t>
+          <t>19454 [16774-22627]</t>
         </is>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>1882.578608241291</v>
+        <v>1909.879571186441</v>
       </c>
       <c r="H26">
-        <v>34.95100073275898</v>
+        <v>38.80951133056965</v>
       </c>
       <c r="I26">
-        <v>1.289994977590547E-08</v>
+        <v>2.078583238569972E-09</v>
       </c>
       <c r="J26">
-        <v>-9948.5299</v>
+        <v>-9909.1013</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>227 [194-265]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.81 [0.433-0.896]</t>
+          <t>0.86 [0.821-0.887]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.03 [0.024-0.042]</t>
+          <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.05 [0.016-0.54]</t>
+          <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20817 [17378-25036]</t>
+          <t>19381 [16721-22529]</t>
         </is>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>1852.917107508532</v>
+        <v>1910.744217442845</v>
       </c>
       <c r="H27">
-        <v>5.289499999999862</v>
+        <v>39.67415758697393</v>
       </c>
       <c r="I27">
-        <v>0.03560418639946168</v>
+        <v>1.348999758400227E-09</v>
       </c>
       <c r="J27">
-        <v>-9998.541999999999</v>
+        <v>-9904.2078</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>231 [195-274]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.84 [0.816-0.862]</t>
+          <t>0.89 [0.873-0.904]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.04 [0.031-0.05]</t>
+          <t>0.03 [0.023-0.034]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.06 [0.035-0.211]</t>
+          <t>0.06 [0.038-0.102]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19415 [16698-22641]</t>
+          <t>20867 [17996-24260]</t>
         </is>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>1873.562594220145</v>
+        <v>1910.815191105464</v>
       </c>
       <c r="H28">
-        <v>25.93498671161205</v>
+        <v>39.74513124959276</v>
       </c>
       <c r="I28">
-        <v>1.170551668955606E-06</v>
+        <v>1.301967480396852E-09</v>
       </c>
       <c r="J28">
-        <v>-9959.573200000001</v>
+        <v>-9906.1504</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>223 [191-260]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.85 [0.46-0.918]</t>
+          <t>0.85 [0.806-0.89]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.03 [0.022-0.042]</t>
+          <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.05 [0.012-0.519]</t>
+          <t>0.06 [0.043-0.073]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20344 [17085-24315]</t>
+          <t>19506 [16816-22690]</t>
         </is>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>1852.274731754161</v>
+        <v>1911.956091105464</v>
       </c>
       <c r="H29">
-        <v>4.647124245628902</v>
+        <v>40.88603124959263</v>
       </c>
       <c r="I29">
-        <v>0.04908979164040113</v>
+        <v>7.359644719840325E-10</v>
       </c>
       <c r="J29">
-        <v>-10001.229</v>
+        <v>-9905.0095</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>204 [176-237]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.86 [0.81-0.9]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.04 [1-0]</t>
+          <t>0.02 [0.018-0.03]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06 [0.545-0]</t>
+          <t>0.03 [0.011-0.07]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19836 [19836-19836]</t>
+          <t>20146 [17106-23805]</t>
         </is>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>1884.598494220144</v>
+        <v>1912.173171186441</v>
       </c>
       <c r="H30">
-        <v>36.97088671161191</v>
+        <v>41.10311133056962</v>
       </c>
       <c r="I30">
-        <v>4.698674410391507E-09</v>
+        <v>6.602653537226032E-10</v>
       </c>
       <c r="J30">
-        <v>-9948.537200000001</v>
+        <v>-9906.8076</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>178 [150-212]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.81 [0.589-0.896]</t>
+          <t>0.86 [0.809-0.898]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.03 [0.023-0.043]</t>
+          <t>0.02 [0.018-0.03]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.05 [0.018-0.316]</t>
+          <t>0.03 [0.013-0.07]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21283 [17714-25673]</t>
+          <t>20123 [17092-23770]</t>
         </is>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>1853.300731754161</v>
+        <v>1912.942191105464</v>
       </c>
       <c r="H31">
-        <v>5.673124245628742</v>
+        <v>41.87213124959271</v>
       </c>
       <c r="I31">
-        <v>0.02938990075570425</v>
+        <v>4.49498198358713E-10</v>
       </c>
       <c r="J31">
-        <v>-10000.203</v>
+        <v>-9904.0234</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>181 [152-216]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.84 [1-0]</t>
+          <t>0.87 [0.822-0.905]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.04 [1-0]</t>
+          <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.06 [0.818-0]</t>
+          <t>0.01 [0.003-0.053]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19829 [19829-19829]</t>
+          <t>19275 [16255-22945]</t>
         </is>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>1872.391304081633</v>
+        <v>1912.963491105464</v>
       </c>
       <c r="H32">
-        <v>24.76369657310033</v>
+        <v>41.8934312495926</v>
       </c>
       <c r="I32">
-        <v>2.102485505418346E-06</v>
+        <v>4.447364438961549E-10</v>
       </c>
       <c r="J32">
-        <v>-9962.773499999999</v>
+        <v>-9904.0021</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>209 [180-244]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.84 [0.818-0]</t>
+          <t>0.87 [0.822-0.903]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.03 [1-0]</t>
+          <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.05 [0.636-0]</t>
+          <t>0.01 [0.004-0.052]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20700 [20700-20700]</t>
+          <t>19133 [16116-22806]</t>
         </is>
       </c>
       <c r="F33">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>1851.64570204953</v>
+        <v>1914.268417442845</v>
       </c>
       <c r="H33">
-        <v>4.018094540997708</v>
+        <v>43.198357586974</v>
       </c>
       <c r="I33">
-        <v>0.06723311816305533</v>
+        <v>2.316016053209092E-10</v>
       </c>
       <c r="J33">
-        <v>-10003.905</v>
+        <v>-9900.6836</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>189 [162-221]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.9 [0.865-0.932]</t>
+          <t>0.88 [0.855-0.898]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.11 [0.098-0.121]</t>
+          <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.09 [0.025-0.707]</t>
+          <t>0.05 [0.044-0.067]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18758 [15589-22678]</t>
+          <t>21567 [18577-25104]</t>
         </is>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>1847.627607508532</v>
+        <v>1915.190491105464</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>44.12043124959268</v>
       </c>
       <c r="I34">
-        <v>0.5013042621535068</v>
+        <v>1.460547929969907E-10</v>
       </c>
       <c r="J34">
-        <v>-10003.832</v>
+        <v>-9901.775</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>194 [167-227]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.76 [0.193-0.886]</t>
+          <t>0.86 [0.832-0.882]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.2 [0.096-0.251]</t>
+          <t>0.03 [0.028-0.044]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.09 [0.018-0.723]</t>
+          <t>0.06 [0.05-0.083]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17450 [13882-22109]</t>
+          <t>19950 [17167-23250]</t>
         </is>
       </c>
       <c r="F35">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>1859.23459151671</v>
+        <v>1918.742617442845</v>
       </c>
       <c r="H35">
-        <v>11.60698400817705</v>
+        <v>47.67255758697411</v>
       </c>
       <c r="I35">
-        <v>0.001512435434905725</v>
+        <v>2.472756657839714E-11</v>
       </c>
       <c r="J35">
-        <v>-10012.75</v>
+        <v>-9896.2094</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>203 [175-236]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.84 [0.821-0.853]</t>
+          <t>0.89 [0.856-0.92]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.04 [0.035-0.044]</t>
+          <t>0.02 [0.016-0.025]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.06 [0.048-0.253]</t>
+          <t>0.01 [0.001-0.083]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19561 [17621-21744]</t>
+          <t>17826 [14960-21336]</t>
         </is>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>1884.348708241291</v>
+        <v>1920.672417442845</v>
       </c>
       <c r="H36">
-        <v>36.72110073275894</v>
+        <v>49.60235758697399</v>
       </c>
       <c r="I36">
-        <v>5.323725914153728E-09</v>
+        <v>9.421729562654962E-12</v>
       </c>
       <c r="J36">
-        <v>-9946.7598</v>
+        <v>-9894.2796</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.8 [0.428-0.891]</t>
+          <t>0.89 [0.841-0.917]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.03 [0.027-0.044]</t>
+          <t>0.02 [0.017-0.029]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.06 [0.028-0.48]</t>
+          <t>0.02 [0.006-0.077]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20575 [17522-24238]</t>
+          <t>18584 [15615-22210]</t>
         </is>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>1854.542007508532</v>
+        <v>1921.525691105464</v>
       </c>
       <c r="H37">
-        <v>6.914399999999887</v>
+        <v>50.45563124959267</v>
       </c>
       <c r="I37">
-        <v>0.01580005192523281</v>
+        <v>6.149568063673517E-12</v>
       </c>
       <c r="J37">
-        <v>-9996.9172</v>
+        <v>-9895.439899999999</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>191 [165-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.89 [0.859-0.922]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.024]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.173]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>17303 [14423-20861]</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>1923.777148032163</v>
+      </c>
+      <c r="H38">
+        <v>52.70708817629156</v>
+      </c>
+      <c r="I38">
+        <v>1.995018617649594E-12</v>
+      </c>
+      <c r="J38">
+        <v>-9889.163</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>205 [176-238]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.89 [0.841-0.921]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.028]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.105]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>18009 [14905-21872]</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>1925.141717442845</v>
+      </c>
+      <c r="H39">
+        <v>54.07165758697397</v>
+      </c>
+      <c r="I39">
+        <v>1.008403792378325E-12</v>
+      </c>
+      <c r="J39">
+        <v>-9889.810299999999</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>191 [165-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.88 [0.853-0.896]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.038]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06 [0.047-0.068]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21265 [18322-24744]</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>1926.998317442845</v>
+      </c>
+      <c r="H40">
+        <v>55.92825758697404</v>
+      </c>
+      <c r="I40">
+        <v>3.98546411161262E-13</v>
+      </c>
+      <c r="J40">
+        <v>-9887.9537</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.9 [0.867-0.926]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.02 [0.018-0.032]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02 [0.011-0.077]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22628 [18948-27116]</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>1932.516291105464</v>
+      </c>
+      <c r="H41">
+        <v>61.44623124959276</v>
+      </c>
+      <c r="I41">
+        <v>2.525027697037594E-14</v>
+      </c>
+      <c r="J41">
+        <v>-9884.4493</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>215 [185-250]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.89 [0.82-0.929]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.03 [0.018-0.036]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02 [0.012-0.07]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21919 [18256-26417]</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>1933.620671186441</v>
+      </c>
+      <c r="H42">
+        <v>62.55061133056961</v>
+      </c>
+      <c r="I42">
+        <v>1.453627259911066E-14</v>
+      </c>
+      <c r="J42">
+        <v>-9885.360199999999</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>177 [146-214]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.86 [0.823-0.891]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.03]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04 [0.025-0.052]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>19239 [16456-22566]</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>1935.139817442845</v>
+      </c>
+      <c r="H43">
+        <v>64.06975758697399</v>
+      </c>
+      <c r="I43">
+        <v>6.801029216484696E-15</v>
+      </c>
+      <c r="J43">
+        <v>-9879.8122</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>197 [168-233]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.86 [0.828-0.894]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.02 [0.018-0.029]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.052]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>19036 [16241-22389]</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>1936.790648032163</v>
+      </c>
+      <c r="H44">
+        <v>65.72058817629159</v>
+      </c>
+      <c r="I44">
+        <v>2.979211479877698E-15</v>
+      </c>
+      <c r="J44">
+        <v>-9876.1495</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>208 [180-243]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.86 [0.812-0.902]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.02 [0.019-0.03]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04 [0.025-0.053]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>19223 [16446-22540]</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>1937.071991105464</v>
+      </c>
+      <c r="H45">
+        <v>66.00193124959264</v>
+      </c>
+      <c r="I45">
+        <v>2.588263337599737E-15</v>
+      </c>
+      <c r="J45">
+        <v>-9879.8935</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>189 [162-220]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.86 [0.815-0.9]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.02 [0.018-0.029]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.052]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>19080 [16268-22454]</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>1938.599917442845</v>
+      </c>
+      <c r="H46">
+        <v>67.529857586974</v>
+      </c>
+      <c r="I46">
+        <v>1.205656167516912E-15</v>
+      </c>
+      <c r="J46">
+        <v>-9876.3521</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>195 [167-227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.84 [0.797-0.867]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.044]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02 [0.008-0.125]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20414 [17188-24334]</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>1944.491491105464</v>
+      </c>
+      <c r="H47">
+        <v>73.42143124959262</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>-9872.474099999999</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>218 [187-253]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.89 [0.857-0.921]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.035]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04 [0.03-0.058]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23108 [19784-27061]</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>1946.166848032163</v>
+      </c>
+      <c r="H48">
+        <v>75.09678817629151</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>-9866.773300000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>182 [153-218]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.86 [0.807-0.894]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.03 [0.02-0.034]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.07]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>19823 [17016-23162]</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>1946.727717442845</v>
+      </c>
+      <c r="H49">
+        <v>75.65765758697398</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>-9868.2243</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>198 [168-233]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.85 [0.815-0.884]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.038]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05 [0.033-0.071]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>19448 [16776-22611]</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>1947.564391105464</v>
+      </c>
+      <c r="H50">
+        <v>76.49433124959273</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>-9869.4012</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>211 [182-246]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.9 [0.841-0.937]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.035]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.058]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23547 [19923-27913]</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>1947.754817442845</v>
+      </c>
+      <c r="H51">
+        <v>76.684757586974</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>-9867.197200000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.86 [0.807-0.895]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.034]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05 [0.03-0.07]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19841 [17039-23172]</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>1947.793691105464</v>
+      </c>
+      <c r="H52">
+        <v>76.7236312495927</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>-9869.171899999999</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>194 [166-227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.85 [0.814-0.884]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.038]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05 [0.033-0.072]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>19384 [16724-22531]</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>1947.898417442845</v>
+      </c>
+      <c r="H53">
+        <v>76.82835758697411</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>-9867.053599999999</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>193 [167-225]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.89 [0.856-0.921]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.036]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04 [0.024-0.078]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22691 [18956-27259]</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>1948.037517442845</v>
+      </c>
+      <c r="H54">
+        <v>76.96745758697398</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>-9866.914500000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>191 [162-224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.85 [0.789-0.901]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.037]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.083]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>19748 [16980-23036]</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>1948.212291105464</v>
+      </c>
+      <c r="H55">
+        <v>77.14223124959267</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>-9868.7533</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>192 [163-227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.86 [0.838-0.881]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.03 [0.026-0.041]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05 [0.032-0.07]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21167 [18198-24686]</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>1948.528591105464</v>
+      </c>
+      <c r="H56">
+        <v>77.45853124959262</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>-9868.437</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>222 [186-267]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.86 [0.795-0.906]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.038]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.076]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>19612 [16660-23168]</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>1948.624991105464</v>
+      </c>
+      <c r="H57">
+        <v>77.55493124959276</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>-9868.3406</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>229 [185-284]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.85 [0.787-0.901]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.03 [0.022-0.038]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05 [0.028-0.082]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>19697 [16931-22982]</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>1948.946471186441</v>
+      </c>
+      <c r="H58">
+        <v>77.87641133056968</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>-9870.0344</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>189 [159-225]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.9 [0.836-0.938]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.03 [0.018-0.036]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04 [0.022-0.081]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23311 [18868-28939]</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>1949.747191105464</v>
+      </c>
+      <c r="H59">
+        <v>78.67713124959278</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>-9867.2184</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>211 [182-246]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.86 [0.777-0.911]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.03 [0.018-0.042]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.087]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>19624 [16773-23034]</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>1950.161971186441</v>
+      </c>
+      <c r="H60">
+        <v>79.0919113305697</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>-9868.8189</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>190 [164-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.85 [0.778-0.909]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.042]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05 [0.028-0.085]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19267 [16217-22980]</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>1950.321071186441</v>
+      </c>
+      <c r="H61">
+        <v>79.25101133056955</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>-9868.659799999999</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>195 [167-227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.85 [0.766-0.91]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.03 [0.017-0.047]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.099]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19221 [16275-22784]</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>1951.815359855871</v>
+      </c>
+      <c r="H62">
+        <v>80.74530000000004</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>-9869.182500000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>199 [171-232]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.87 [0.829-0.896]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.034]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05 [0.031-0.065]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19431 [16710-22663]</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>1951.820317442845</v>
+      </c>
+      <c r="H63">
+        <v>80.75025758697393</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>-9863.1317</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.87 [0.846-0.889]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.03 [0.026-0.04]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06 [0.054-0.073]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20860 [17974-24275]</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>1951.957217442845</v>
+      </c>
+      <c r="H64">
+        <v>80.8871575869739</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>-9862.994699999999</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>194 [166-226]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.86 [0.834-0.877]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.03 [0.027-0.042]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05 [0.036-0.068]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20847 [17933-24301]</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>1953.136917442845</v>
+      </c>
+      <c r="H65">
+        <v>82.06685758697404</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>-9861.8151</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>196 [168-228]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.87 [0.83-0.898]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.033]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04 [0.03-0.066]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>19284 [16565-22517]</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>1953.379548032163</v>
+      </c>
+      <c r="H66">
+        <v>82.30948817629155</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>-9859.560600000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>189 [163-220]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.86 [0.819-0.9]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.03 [0.019-0.039]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04 [0.026-0.07]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>19433 [16570-22867]</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>1955.279117442845</v>
+      </c>
+      <c r="H67">
+        <v>84.20905758697404</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>-9859.6729</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>196 [167-230]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.87 [0.845-0.888]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.03 [0.026-0.04]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06 [0.055-0.073]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20715 [17852-24102]</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>1956.777348032163</v>
+      </c>
+      <c r="H68">
+        <v>85.70728817629151</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-9856.1628</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>205 [176-238]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.87 [0.826-0.905]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.026]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02 [0.007-0.051]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>18362 [15447-21919]</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>1959.193448032162</v>
+      </c>
+      <c r="H69">
+        <v>88.12338817629143</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>-9853.7467</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.86 [0.809-0.903]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.032]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01 [0.002-0.06]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>19030 [15784-23053]</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>1960.128017442845</v>
+      </c>
+      <c r="H70">
+        <v>89.057957586974</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-9854.824000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>187 [161-217]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.87 [0.825-0.907]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.02 [0.017-0.026]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02 [0.007-0.051]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>18458 [15552-21998]</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>1960.370917442845</v>
+      </c>
+      <c r="H71">
+        <v>89.30085758697396</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-9854.581099999999</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>204 [176-238]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.88 [0.845-0.909]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.02 [0.017-0.026]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02 [0.009-0.05]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>18145 [15309-21595]</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>1963.050148032162</v>
+      </c>
+      <c r="H72">
+        <v>91.98008817629147</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-9849.889999999999</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>190 [163-221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.88 [0.849-0.912]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.026]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02 [0.006-0.054]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>17825 [14976-21309]</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>1963.24728071066</v>
+      </c>
+      <c r="H73">
+        <v>92.17722085478886</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>-9847.682699999999</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>189 [162-220]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.88 [0.833-0.911]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.032]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01 [0.001-0.083]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>18277 [15251-22005]</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74">
+        <v>1964.300148032162</v>
+      </c>
+      <c r="H74">
+        <v>93.23008817629147</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>-9848.639999999999</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>199 [172-232]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.88 [0.845-0.906]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.03 [0.025-0.044]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.07 [0.054-0.085]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>18697 [16128-21741]</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>1971.677017442845</v>
+      </c>
+      <c r="H75">
+        <v>100.606957586974</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-9843.275</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.88 [0.859-0.902]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.035]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.05 [0.037-0.062]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22198 [19121-25836]</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>1972.580817442845</v>
+      </c>
+      <c r="H76">
+        <v>101.510757586974</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>-9842.3712</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>192 [165-224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.94 [0.929-0.941]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.022]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21493 [18491-25048]</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>1975.486117442845</v>
+      </c>
+      <c r="H77">
+        <v>104.4160575869739</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>-9839.465899999999</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>208 [178-242]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.85 [0.827-0.872]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.045]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06 [0.048-0.072]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20475 [17604-23881]</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>1978.364217442845</v>
+      </c>
+      <c r="H78">
+        <v>107.2941575869741</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>-9836.587799999999</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>190 [163-221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.85 [0.825-0.87]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.04 [0.03-0.045]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06 [0.049-0.072]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20295 [17455-23664]</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>1979.357348032162</v>
+      </c>
+      <c r="H79">
+        <v>108.2872881762914</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>-9833.5828</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>188 [162-219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.88 [0.856-0.899]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.03 [0.023-0.036]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05 [0.041-0.064]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21921 [18887-25507]</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>1979.992548032163</v>
+      </c>
+      <c r="H80">
+        <v>108.9224881762916</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>-9832.9476</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>203 [175-237]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.9 [0.861-0.922]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.039]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.07 [0.053-0.084]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>19722 [17003-22939]</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>1999.428348032163</v>
+      </c>
+      <c r="H81">
+        <v>128.3582881762916</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>-9813.5118</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>192 [165-224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.87 [0.848-0.89]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.03 [0.025-0.039]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06 [0.049-0.069]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21533 [18550-25059]</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>2000.448248032163</v>
+      </c>
+      <c r="H82">
+        <v>129.3781881762916</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>-9812.491900000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>190 [163-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.94 [0.932-0.944]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.021]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21009 [18085-24471]</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>2000.713548032163</v>
+      </c>
+      <c r="H83">
+        <v>129.6434881762916</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>-9812.226500000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>183 [158-213]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.87 [0.847-0.889]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.03 [0.026-0.039]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.06 [0.05-0.07]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21365 [18409-24860]</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>2003.91698071066</v>
+      </c>
+      <c r="H84">
+        <v>132.8469208547888</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-9807.013000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>200 [169-239]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.93 [0.926-0.937]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.022]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22044 [18969-25684]</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>2013.825648032162</v>
+      </c>
+      <c r="H85">
+        <v>142.7555881762914</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>-9799.1145</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>192 [164-226]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.93 [0.897-0.958]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.03 [0.024-0.038]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08 [0.079-0.083]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26811 [22973-31358]</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>2031.47658071066</v>
+      </c>
+      <c r="H86">
+        <v>160.4065208547888</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>-9779.4534</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>222 [186-266]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.93 [0.929-0.94]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.02 [0.016-0.022]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21620 [18614-25176]</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>2031.80968071066</v>
+      </c>
+      <c r="H87">
+        <v>160.7396208547889</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>-9779.120199999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>215 [179-259]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.95 [0.939-0.951]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.021]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20111 [17324-23413]</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>2090.195748032162</v>
+      </c>
+      <c r="H88">
+        <v>219.1256881762911</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>-9722.7444</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>188 [160-223]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.95 [0.942-0.953]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.02]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>19812 [17073-23055]</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>2103.91518071066</v>
+      </c>
+      <c r="H89">
+        <v>232.845120854789</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>-9707.014800000001</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>201 [173-234]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.94 [0.935-0.946]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.021]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20790 [17913-24194]</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>2109.09818071066</v>
+      </c>
+      <c r="H90">
+        <v>238.028120854789</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-9701.8318</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.94 [0.938-0.948]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.02 [0.015-0.021]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20474 [17649-23816]</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>2121.399013319239</v>
+      </c>
+      <c r="H91">
+        <v>250.3289534633677</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-9687.522499999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>193 [166-225]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_hainich.xlsx
+++ b/data/population_models/models_summary_hainich.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.86 [0.823-0.897]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.037]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.08]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>19579 [16861-22801]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1871.070059855871</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5560908241250312</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-9949.927799999999</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>201 [173-233]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>192 [165-224]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.87 [0.806-0.908]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.038]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.086]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>19341 [16584-22627]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1872.718959287532</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.648899431660766</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2438325984281831</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-9950.2976</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>175 [147-209]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>190 [163-222]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.87 [0.825-0.898]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.067]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>19446 [16732-22666]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1874.650171186441</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.580111330569707</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.09283985024564943</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-9944.330599999999</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>180 [151-215]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.86 [0.806-0.899]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.035]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>19768 [16958-23113]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1875.689959855871</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.619900000000143</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0552010311660396</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-9945.3079</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>194 [167-226]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>194 [166-227]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>74</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.86 [0.822-0.894]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.077]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>19397 [16722-22565]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1877.635071186441</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.565011330569632</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.02087236360454426</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-9941.345799999999</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>187 [159-220]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.86 [0.804-0.903]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.037]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.083]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>19545 [16783-22831]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1879.451759855871</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.381700000000137</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.008415553775794837</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-9941.5461</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>187 [159-220]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>192 [165-224]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.87 [0.832-0.902]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.03 [0.014-0.048]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>18894 [16135-22199]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1880.439691105464</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9.369631249592658</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.005135185713077375</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-9936.525900000001</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>197 [170-230]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>185 [158-218]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.85 [0.804-0.895]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.069]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>19844 [17028-23196]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1880.898971186441</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9.828911330569554</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.004081546531237779</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-9938.081899999999</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>189 [161-221]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>195 [167-227]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.87 [0.852-0.891]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.031]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.04]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>19357 [16674-22538]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1881.130191105464</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.06013124959259</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.00363593394372025</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-9935.8354</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>188 [161-221]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>190 [163-221]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.87 [0.814-0.909]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.03 [0.014-0.048]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>19032 [16195-22445]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1882.304971186441</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>11.2349113305695</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.00202076462772926</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-9936.6759</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>212 [182-247]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.87 [0.843-0.888]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.04]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.05 [0.039-0.075]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>20746 [17856-24170]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1882.373071186441</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11.30301133056969</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.001953115848508479</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-9936.6077</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>170 [141-205]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>203 [175-237]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>77</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.87 [0.847-0.89]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.032]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.044]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>19353 [16676-22525]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1882.723971186441</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11.6539113305696</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.001638819176821221</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-9936.2569</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>188 [158-224]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>190 [163-221]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.87 [0.828-0.9]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>19230 [16528-22441]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1882.743091105464</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11.67303124959267</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.001623226781928585</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-9934.2225</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>206 [177-240]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>189 [162-220]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.87 [0.833-0.905]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.032]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.043]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>19237 [16556-22418]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1882.800771186441</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.73071133056965</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.001577081470534858</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-9936.1801</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>181 [154-214]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>189 [162-220]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.87 [0.827-0.903]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.034]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.048]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>19157 [16500-22308]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1883.914859855871</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12.84480000000008</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.0009035097602042146</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-9937.082899999999</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>186 [158-220]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>188 [162-219]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.88 [0.838-0.906]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.027]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.02 [0.012-0.05]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>18472 [15701-21812]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1888.490617442845</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>17.42055758697393</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9.168952294607485E-05</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-9926.4614</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>216 [186-252]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>181 [154-214]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.86 [0.814-0.904]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.028]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.03 [0.013-0.048]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>18964 [16088-22436]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1888.951891105464</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>17.88183124959278</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7.280402832734477E-05</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-9928.0136</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>175 [147-209]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>186 [158-220]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>73</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.86 [0.838-0.882]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.042]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.06 [0.044-0.073]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>20336 [17508-23685]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1892.264791105464</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>21.19473124959268</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.389211326133769E-05</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-9924.700800000001</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>189 [159-225]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>199 [172-232]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.86 [0.819-0.903]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.029]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.118]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>20005 [17080-23504]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1901.777271186441</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>30.70721133056963</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.194426722731198E-07</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-9917.203600000001</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>211 [181-246]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>196 [167-230]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>69</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.86 [0.804-0.895]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.043]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.06 [0.043-0.081]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>19047 [16419-22161]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1904.401359855871</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>33.33130000000006</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.216221098937011E-08</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-9916.5964</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>185 [158-218]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>187 [161-217]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>68</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.85 [0.812-0.885]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.06 [0.043-0.08]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>19356 [16698-22502]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1904.927271186441</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>33.85721133056973</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.472553527295437E-08</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-9914.053599999999</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>187 [159-220]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>65</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.85 [0.813-0.885]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.041]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.06 [0.044-0.079]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>19284 [16640-22412]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1906.621291105464</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>35.55123124959277</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.059970920043761E-08</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-9910.344300000001</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>263 [225-307]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>189 [163-220]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.95 [0.923-0.964]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.031]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.05 [0.038-0.066]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>22717 [19523-26502]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1906.932691105464</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>35.8626312495926</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9.071399633413308E-09</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-9910.0329</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>179 [150-216]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>223 [191-260]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.86 [0.818-0.885]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>19455 [16786-22612]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1907.864291105464</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>36.79423124959271</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5.693507934195166E-09</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-9909.1013</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>187 [155-226]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>191 [165-222]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.86 [0.806-0.893]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>19454 [16774-22627]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1909.879571186441</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>38.80951133056965</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2.078583238569972E-09</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-9909.1013</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>227 [194-265]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.86 [0.821-0.887]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.06 [0.044-0.072]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>19381 [16721-22529]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1910.744217442845</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>39.67415758697393</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.348999758400227E-09</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-9904.2078</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>231 [195-274]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>67</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.89 [0.873-0.904]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.034]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.06 [0.038-0.102]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>20867 [17996-24260]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1910.815191105464</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>39.74513124959276</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.301967480396852E-09</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-9906.1504</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>223 [191-260]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>205 [176-238]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.85 [0.806-0.89]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.06 [0.043-0.073]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>19506 [16816-22690]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1911.956091105464</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>40.88603124959263</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7.359644719840325E-10</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-9905.0095</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>204 [176-237]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>191 [165-222]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.86 [0.81-0.9]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.03]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.03 [0.011-0.07]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>20146 [17106-23805]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1912.173171186441</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>41.10311133056962</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6.602653537226032E-10</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-9906.8076</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>178 [150-212]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>198 [168-233]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.86 [0.809-0.898]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.03]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.03 [0.013-0.07]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>20123 [17092-23770]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>8</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1912.942191105464</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>41.87213124959271</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4.49498198358713E-10</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-9904.0234</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>181 [152-216]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>197 [168-233]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.87 [0.822-0.905]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.01 [0.003-0.053]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>19275 [16255-22945]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1912.963491105464</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>41.8934312495926</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4.447364438961549E-10</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-9904.0021</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>209 [180-244]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>189 [159-225]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.87 [0.822-0.903]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.01 [0.004-0.052]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>19133 [16116-22806]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1914.268417442845</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>43.198357586974</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.316016053209092E-10</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-9900.6836</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>189 [162-221]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>188 [158-224]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>49</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.88 [0.855-0.898]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.037]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.05 [0.044-0.067]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>21567 [18577-25104]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>8</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1915.190491105464</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>44.12043124959268</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.460547929969907E-10</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-9901.775</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>194 [167-227]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>211 [182-246]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.86 [0.832-0.882]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.03 [0.028-0.044]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.06 [0.05-0.083]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>19950 [17167-23250]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>7</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1918.742617442845</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>47.67255758697411</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.472756657839714E-11</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-9896.2094</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>203 [175-236]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>196 [168-228]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.89 [0.856-0.92]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.025]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.01 [0.001-0.083]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>17826 [14960-21336]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>7</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1920.672417442845</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>49.60235758697399</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>9.421729562654962E-12</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-9894.2796</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>190 [164-221]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>175 [147-209]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>47</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.89 [0.841-0.917]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.029]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.02 [0.006-0.077]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>18584 [15615-22210]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1921.525691105464</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>50.45563124959267</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6.149568063673517E-12</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-9895.439899999999</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>191 [165-222]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>182 [153-218]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.89 [0.859-0.922]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.024]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.01 [0-0.173]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>17303 [14423-20861]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1923.777148032163</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>52.70708817629156</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1.995018617649594E-12</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-9889.163</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>205 [176-238]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>170 [141-205]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.89 [0.841-0.921]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.028]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.105]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>18009 [14905-21872]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1925.141717442845</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>54.07165758697397</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1.008403792378325E-12</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-9889.810299999999</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>191 [165-222]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>177 [146-214]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.88 [0.853-0.896]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.06 [0.047-0.068]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>21265 [18322-24744]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>7</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1926.998317442845</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>55.92825758697404</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3.98546411161262E-13</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-9887.9537</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>191 [164-222]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>208 [180-243]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>85</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.9 [0.867-0.926]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.032]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.077]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>22628 [18948-27116]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1932.516291105464</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>61.44623124959276</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2.525027697037594E-14</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-9884.4493</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>215 [185-250]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>222 [186-266]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>86</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.89 [0.82-0.929]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.036]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.02 [0.012-0.07]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>21919 [18256-26417]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>9</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1933.620671186441</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>62.55061133056961</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1.453627259911066E-14</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-9885.360199999999</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>177 [146-214]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>215 [179-259]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.86 [0.823-0.891]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.03]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.04 [0.025-0.052]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>19239 [16456-22566]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1935.139817442845</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>64.06975758697399</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>6.801029216484696E-15</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-9879.8122</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>197 [168-233]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>189 [161-221]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.86 [0.828-0.894]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.052]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>19036 [16241-22389]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>6</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1936.790648032163</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>65.72058817629159</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2.979211479877698E-15</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-9876.1495</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>208 [180-243]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.86 [0.812-0.902]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.02 [0.019-0.03]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.04 [0.025-0.053]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>19223 [16446-22540]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1937.071991105464</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>66.00193124959264</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2.588263337599737E-15</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-9879.8935</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>189 [162-220]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>188 [161-221]</t>
         </is>
       </c>
     </row>
@@ -2488,44 +2625,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.86 [0.815-0.9]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.02 [0.018-0.029]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.052]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>19080 [16268-22454]</t>
         </is>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1938.599917442845</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>67.529857586974</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.205656167516912E-15</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-9876.3521</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>195 [167-227]</t>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>187 [159-220]</t>
         </is>
       </c>
     </row>
@@ -2535,44 +2675,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47">
+        <v>83</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.84 [0.797-0.867]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.044]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.02 [0.008-0.125]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>20414 [17188-24334]</t>
         </is>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>8</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>1944.491491105464</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>73.42143124959262</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-9872.474099999999</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>218 [187-253]</t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>200 [169-239]</t>
         </is>
       </c>
     </row>
@@ -2582,44 +2725,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.89 [0.857-0.921]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.035]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.04 [0.03-0.058]</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>23108 [19784-27061]</t>
         </is>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>1946.166848032163</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>75.09678817629151</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-9866.773300000001</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>182 [153-218]</t>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>227 [194-265]</t>
         </is>
       </c>
     </row>
@@ -2629,44 +2775,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.86 [0.807-0.894]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.034]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.07]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>19823 [17016-23162]</t>
         </is>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1946.727717442845</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>75.65765758697398</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-9868.2243</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>198 [168-233]</t>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>194 [167-227]</t>
         </is>
       </c>
     </row>
@@ -2676,44 +2825,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50">
+        <v>89</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.85 [0.815-0.884]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.05 [0.033-0.071]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>19448 [16776-22611]</t>
         </is>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>1947.564391105464</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>76.49433124959273</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-9869.4012</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>211 [182-246]</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>191 [164-222]</t>
         </is>
       </c>
     </row>
@@ -2723,44 +2875,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.9 [0.841-0.937]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.035]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.058]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>23547 [19923-27913]</t>
         </is>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>7</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1947.754817442845</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>76.684757586974</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-9867.197200000001</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>191 [164-222]</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>231 [195-274]</t>
         </is>
       </c>
     </row>
@@ -2770,44 +2925,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.86 [0.807-0.895]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.07]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>19841 [17039-23172]</t>
         </is>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1947.793691105464</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>76.7236312495927</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-9869.171899999999</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>194 [166-227]</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>195 [167-227]</t>
         </is>
       </c>
     </row>
@@ -2817,44 +2975,47 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53">
+        <v>62</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.85 [0.814-0.884]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.05 [0.033-0.072]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>19384 [16724-22531]</t>
         </is>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>7</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1947.898417442845</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>76.82835758697411</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-9867.053599999999</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>193 [167-225]</t>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>190 [164-221]</t>
         </is>
       </c>
     </row>
@@ -2864,44 +3025,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54">
+        <v>55</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>0.89 [0.856-0.921]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.036]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>0.04 [0.024-0.078]</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>22691 [18956-27259]</t>
         </is>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1948.037517442845</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>76.96745758697398</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-9866.914500000001</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>191 [162-224]</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>222 [186-267]</t>
         </is>
       </c>
     </row>
@@ -2911,44 +3075,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55">
+        <v>63</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.85 [0.789-0.901]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.037]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.083]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>19748 [16980-23036]</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1948.212291105464</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>77.14223124959267</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-9868.7533</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>192 [163-227]</t>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>194 [166-226]</t>
         </is>
       </c>
     </row>
@@ -2958,44 +3125,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56">
+        <v>76</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.86 [0.838-0.881]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.041]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.05 [0.032-0.07]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>21167 [18198-24686]</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1948.528591105464</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>77.45853124959262</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-9868.437</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>222 [186-267]</t>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>208 [178-242]</t>
         </is>
       </c>
     </row>
@@ -3005,44 +3175,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.86 [0.795-0.906]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.038]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.076]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>19612 [16660-23168]</t>
         </is>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>8</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1948.624991105464</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>77.55493124959276</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-9868.3406</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>229 [185-284]</t>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>192 [163-227]</t>
         </is>
       </c>
     </row>
@@ -3052,44 +3225,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58">
+        <v>90</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.85 [0.787-0.901]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.038]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.082]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>19697 [16931-22982]</t>
         </is>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>9</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1948.946471186441</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>77.87641133056968</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-9870.0344</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>189 [159-225]</t>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>193 [166-225]</t>
         </is>
       </c>
     </row>
@@ -3099,44 +3275,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.9 [0.836-0.938]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.036]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.04 [0.022-0.081]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>23311 [18868-28939]</t>
         </is>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>8</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1949.747191105464</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>78.67713124959278</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-9867.2184</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>211 [182-246]</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>229 [185-284]</t>
         </is>
       </c>
     </row>
@@ -3146,44 +3325,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60">
+        <v>84</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.86 [0.777-0.911]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.03 [0.018-0.042]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.087]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>19624 [16773-23034]</t>
         </is>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>9</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1950.161971186441</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>79.0919113305697</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-9868.8189</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>190 [164-222]</t>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>192 [164-226]</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3375,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.85 [0.778-0.909]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.042]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.085]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>19267 [16217-22980]</t>
         </is>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>9</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1950.321071186441</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>79.25101133056955</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-9868.659799999999</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>195 [167-227]</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>189 [159-225]</t>
         </is>
       </c>
     </row>
@@ -3240,44 +3425,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62">
+        <v>87</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.85 [0.766-0.91]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.03 [0.017-0.047]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.099]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>19221 [16275-22784]</t>
         </is>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>10</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1951.815359855871</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>80.74530000000004</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-9869.182500000001</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>199 [171-232]</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>188 [160-223]</t>
         </is>
       </c>
     </row>
@@ -3287,44 +3475,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.87 [0.829-0.896]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.034]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.05 [0.031-0.065]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>19431 [16710-22663]</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>7</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1951.820317442845</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>80.75025758697393</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-9863.1317</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>190 [164-221]</t>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>190 [164-222]</t>
         </is>
       </c>
     </row>
@@ -3334,44 +3525,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64">
+        <v>37</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.87 [0.846-0.889]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.04]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.06 [0.054-0.073]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>20860 [17974-24275]</t>
         </is>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>7</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1951.957217442845</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>80.8871575869739</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-9862.994699999999</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>194 [166-226]</t>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>205 [176-238]</t>
         </is>
       </c>
     </row>
@@ -3381,44 +3575,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.86 [0.834-0.877]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.03 [0.027-0.042]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>0.05 [0.036-0.068]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>20847 [17933-24301]</t>
         </is>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>7</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1953.136917442845</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>82.06685758697404</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-9861.8151</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>196 [168-228]</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>204 [176-238]</t>
         </is>
       </c>
     </row>
@@ -3428,44 +3625,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.87 [0.83-0.898]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.033]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0.04 [0.03-0.066]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>19284 [16565-22517]</t>
         </is>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>6</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1953.379548032163</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>82.30948817629155</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-9859.560600000001</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>189 [163-220]</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>189 [162-221]</t>
         </is>
       </c>
     </row>
@@ -3475,44 +3675,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67">
+        <v>53</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.86 [0.819-0.9]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0.03 [0.019-0.039]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.07]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>19433 [16570-22867]</t>
         </is>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>7</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1955.279117442845</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>84.20905758697404</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-9859.6729</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>196 [167-230]</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>191 [162-224]</t>
         </is>
       </c>
     </row>
@@ -3522,44 +3725,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.87 [0.845-0.888]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.04]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.06 [0.055-0.073]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>20715 [17852-24102]</t>
         </is>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1956.777348032163</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>85.70728817629151</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-9856.1628</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>205 [176-238]</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>203 [175-236]</t>
         </is>
       </c>
     </row>
@@ -3569,44 +3775,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>0.87 [0.826-0.905]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.026]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.02 [0.007-0.051]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>18362 [15447-21919]</t>
         </is>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>6</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1959.193448032162</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>88.12338817629143</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-9853.7467</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>190 [164-221]</t>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>180 [151-215]</t>
         </is>
       </c>
     </row>
@@ -3616,44 +3825,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>0.86 [0.809-0.903]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.032]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0.01 [0.002-0.06]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>19030 [15784-23053]</t>
         </is>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>7</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>1960.128017442845</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>89.057957586974</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-9854.824000000001</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>187 [161-217]</t>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>187 [155-226]</t>
         </is>
       </c>
     </row>
@@ -3663,44 +3875,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>0.87 [0.825-0.907]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0.02 [0.007-0.051]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>18458 [15552-21998]</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>7</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1960.370917442845</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>89.30085758697396</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-9854.581099999999</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>204 [176-238]</t>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>181 [152-216]</t>
         </is>
       </c>
     </row>
@@ -3710,44 +3925,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72">
+        <v>29</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.88 [0.845-0.909]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.02 [0.017-0.026]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.02 [0.009-0.05]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>18145 [15309-21595]</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>6</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>1963.050148032162</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>91.98008817629147</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-9849.889999999999</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>190 [163-221]</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>178 [150-212]</t>
         </is>
       </c>
     </row>
@@ -3757,44 +3975,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>0.88 [0.849-0.912]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.026]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>0.02 [0.006-0.054]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>17825 [14976-21309]</t>
         </is>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>5</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1963.24728071066</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>92.17722085478886</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-9847.682699999999</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>189 [162-220]</t>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>175 [147-209]</t>
         </is>
       </c>
     </row>
@@ -3804,44 +4025,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74">
+        <v>23</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>0.88 [0.833-0.911]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.032]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>0.01 [0.001-0.083]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>18277 [15251-22005]</t>
         </is>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>6</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1964.300148032162</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>93.23008817629147</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-9848.639999999999</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>199 [172-232]</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>179 [150-216]</t>
         </is>
       </c>
     </row>
@@ -3851,44 +4075,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75">
+        <v>82</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.88 [0.845-0.906]</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.044]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>0.07 [0.054-0.085]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>18697 [16128-21741]</t>
         </is>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>7</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1971.677017442845</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>100.606957586974</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-9843.275</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>190 [164-221]</t>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>183 [158-213]</t>
         </is>
       </c>
     </row>
@@ -3898,44 +4125,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76">
+        <v>46</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>0.88 [0.859-0.902]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.035]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0.05 [0.037-0.062]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>22198 [19121-25836]</t>
         </is>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>7</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1972.580817442845</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>101.510757586974</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-9842.3712</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>192 [165-224]</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>218 [187-253]</t>
         </is>
       </c>
     </row>
@@ -3945,44 +4175,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>0.94 [0.929-0.941]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.022]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>21493 [18491-25048]</t>
         </is>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>7</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1975.486117442845</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>104.4160575869739</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-9839.465899999999</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>208 [178-242]</t>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>211 [181-246]</t>
         </is>
       </c>
     </row>
@@ -3992,44 +4225,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78">
+        <v>88</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.85 [0.827-0.872]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.045]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0.06 [0.048-0.072]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>20475 [17604-23881]</t>
         </is>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>7</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1978.364217442845</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>107.2941575869741</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-9836.587799999999</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>190 [163-221]</t>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>201 [173-234]</t>
         </is>
       </c>
     </row>
@@ -4039,44 +4275,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79">
+        <v>61</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>0.85 [0.825-0.87]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>0.04 [0.03-0.045]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0.06 [0.049-0.072]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>20295 [17455-23664]</t>
         </is>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>6</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1979.357348032162</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>108.2872881762914</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-9833.5828</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>188 [162-219]</t>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>199 [171-232]</t>
         </is>
       </c>
     </row>
@@ -4086,44 +4325,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>0.88 [0.856-0.899]</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.036]</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0.05 [0.041-0.064]</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>21921 [18887-25507]</t>
         </is>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>6</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1979.992548032163</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>108.9224881762916</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-9832.9476</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>203 [175-237]</t>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>215 [185-250]</t>
         </is>
       </c>
     </row>
@@ -4133,44 +4375,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81">
+        <v>52</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>0.9 [0.861-0.922]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.039]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0.07 [0.053-0.084]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>19722 [17003-22939]</t>
         </is>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1999.428348032163</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>128.3582881762916</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-9813.5118</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>192 [165-224]</t>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>193 [167-225]</t>
         </is>
       </c>
     </row>
@@ -4180,44 +4425,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82">
+        <v>58</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>0.87 [0.848-0.89]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>0.03 [0.025-0.039]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0.06 [0.049-0.069]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>21533 [18550-25059]</t>
         </is>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>6</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>2000.448248032163</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>129.3781881762916</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-9812.491900000001</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>190 [163-222]</t>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>211 [182-246]</t>
         </is>
       </c>
     </row>
@@ -4227,44 +4475,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>0.94 [0.932-0.944]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>21009 [18085-24471]</t>
         </is>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>2000.713548032163</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>129.6434881762916</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-9812.226500000001</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>183 [158-213]</t>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>206 [177-240]</t>
         </is>
       </c>
     </row>
@@ -4274,44 +4525,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84">
+        <v>31</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>0.87 [0.847-0.889]</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>0.03 [0.026-0.039]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0.06 [0.05-0.07]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>21365 [18409-24860]</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>5</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>2003.91698071066</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>132.8469208547888</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-9807.013000000001</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>200 [169-239]</t>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>209 [180-244]</t>
         </is>
       </c>
     </row>
@@ -4321,44 +4575,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>0.93 [0.926-0.937]</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.022]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>22044 [18969-25684]</t>
         </is>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>6</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>2013.825648032162</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>142.7555881762914</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-9799.1145</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>192 [164-226]</t>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>216 [186-252]</t>
         </is>
       </c>
     </row>
@@ -4368,44 +4625,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86">
+        <v>22</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>0.93 [0.897-0.958]</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>0.03 [0.024-0.038]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0.08 [0.079-0.083]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>26811 [22973-31358]</t>
         </is>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>5</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>2031.47658071066</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>160.4065208547888</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-9779.4534</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>222 [186-266]</t>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>263 [225-307]</t>
         </is>
       </c>
     </row>
@@ -4415,44 +4675,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>0.93 [0.929-0.94]</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.02 [0.016-0.022]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>21620 [18614-25176]</t>
         </is>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>5</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>2031.80968071066</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>160.7396208547889</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-9779.120199999999</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>215 [179-259]</t>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>212 [182-247]</t>
         </is>
       </c>
     </row>
@@ -4462,44 +4725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>0.95 [0.939-0.951]</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>20111 [17324-23413]</t>
         </is>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>6</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>2090.195748032162</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>219.1256881762911</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-9722.7444</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>188 [160-223]</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>197 [170-230]</t>
         </is>
       </c>
     </row>
@@ -4509,44 +4775,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>0.95 [0.942-0.953]</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.02]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>19812 [17073-23055]</t>
         </is>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>5</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2103.91518071066</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>232.845120854789</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-9707.014800000001</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>201 [173-234]</t>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>194 [167-226]</t>
         </is>
       </c>
     </row>
@@ -4556,44 +4825,47 @@
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>0.94 [0.935-0.946]</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>20790 [17913-24194]</t>
         </is>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>5</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2109.09818071066</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>238.028120854789</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-9701.8318</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>191 [164-222]</t>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>204 [176-237]</t>
         </is>
       </c>
     </row>
@@ -4603,44 +4875,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>0.94 [0.938-0.948]</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>0.02 [0.015-0.021]</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>20474 [17649-23816]</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>4</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>2121.399013319239</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>250.3289534633677</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-9687.522499999999</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>193 [166-225]</t>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>201 [173-233]</t>
         </is>
       </c>
     </row>
